--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H2">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I2">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J2">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4032725</v>
+        <v>0.5374675</v>
       </c>
       <c r="N2">
-        <v>0.8065450000000001</v>
+        <v>1.074935</v>
       </c>
       <c r="O2">
-        <v>0.04184860801861763</v>
+        <v>0.06720431564072572</v>
       </c>
       <c r="P2">
-        <v>0.03257830737810435</v>
+        <v>0.05211196382212351</v>
       </c>
       <c r="Q2">
-        <v>23.81544238794125</v>
+        <v>31.46031747696875</v>
       </c>
       <c r="R2">
-        <v>95.26176955176501</v>
+        <v>125.841269907875</v>
       </c>
       <c r="S2">
-        <v>0.02424129116848294</v>
+        <v>0.0605926281443015</v>
       </c>
       <c r="T2">
-        <v>0.01581007037834242</v>
+        <v>0.04647721981749706</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H3">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I3">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J3">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.593613999999999</v>
       </c>
       <c r="O3">
-        <v>0.2972603584832461</v>
+        <v>0.3581785241281625</v>
       </c>
       <c r="P3">
-        <v>0.3471168978553966</v>
+        <v>0.4166113317263779</v>
       </c>
       <c r="Q3">
-        <v>169.166604980673</v>
+        <v>167.673905687025</v>
       </c>
       <c r="R3">
-        <v>1014.999629884038</v>
+        <v>1006.04343412215</v>
       </c>
       <c r="S3">
-        <v>0.1721915075319636</v>
+        <v>0.3229402444598439</v>
       </c>
       <c r="T3">
-        <v>0.168453889298562</v>
+        <v>0.3715641289052083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H4">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I4">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J4">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7332406666666667</v>
+        <v>0.794677</v>
       </c>
       <c r="N4">
-        <v>2.199722</v>
+        <v>2.384031</v>
       </c>
       <c r="O4">
-        <v>0.07609023983198258</v>
+        <v>0.0993654945469726</v>
       </c>
       <c r="P4">
-        <v>0.08885210305981496</v>
+        <v>0.1155758601430048</v>
       </c>
       <c r="Q4">
-        <v>43.30186376084566</v>
+        <v>46.5159115884125</v>
       </c>
       <c r="R4">
-        <v>259.811182565074</v>
+        <v>279.095469530475</v>
       </c>
       <c r="S4">
-        <v>0.04407615321461098</v>
+        <v>0.0895897295293745</v>
       </c>
       <c r="T4">
-        <v>0.04311942871481213</v>
+        <v>0.1030789143889885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H5">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I5">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J5">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.748994</v>
+        <v>2.8276635</v>
       </c>
       <c r="N5">
-        <v>7.497988</v>
+        <v>5.655327</v>
       </c>
       <c r="O5">
-        <v>0.3890425961853322</v>
+        <v>0.3535677792234121</v>
       </c>
       <c r="P5">
-        <v>0.3028619082398848</v>
+        <v>0.2741655970140318</v>
       </c>
       <c r="Q5">
-        <v>221.398559583749</v>
+        <v>165.5154803370187</v>
       </c>
       <c r="R5">
-        <v>885.594238334996</v>
+        <v>662.061921348075</v>
       </c>
       <c r="S5">
-        <v>0.2253574323637132</v>
+        <v>0.3187831133467867</v>
       </c>
       <c r="T5">
-        <v>0.1469771903315586</v>
+        <v>0.2445207162468672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H6">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I6">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J6">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.283051</v>
+        <v>0.4386483333333333</v>
       </c>
       <c r="N6">
-        <v>0.8491529999999999</v>
+        <v>1.315945</v>
       </c>
       <c r="O6">
-        <v>0.02937291867974567</v>
+        <v>0.05484808113720663</v>
       </c>
       <c r="P6">
-        <v>0.03429934776737745</v>
+        <v>0.06379593020220228</v>
       </c>
       <c r="Q6">
-        <v>16.7157065838835</v>
+        <v>25.67600055335416</v>
       </c>
       <c r="R6">
-        <v>100.294239503301</v>
+        <v>154.056003320125</v>
       </c>
       <c r="S6">
-        <v>0.017014603541105</v>
+        <v>0.04945202332752079</v>
       </c>
       <c r="T6">
-        <v>0.01664528165444036</v>
+        <v>0.05689782641065382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>59.0554585</v>
+        <v>58.5343625</v>
       </c>
       <c r="H7">
-        <v>118.110917</v>
+        <v>117.068725</v>
       </c>
       <c r="I7">
-        <v>0.5792615887653531</v>
+        <v>0.9016181113759077</v>
       </c>
       <c r="J7">
-        <v>0.4852944075593153</v>
+        <v>0.8918723534607176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.603365333333333</v>
+        <v>0.5345203333333334</v>
       </c>
       <c r="N7">
-        <v>4.810096</v>
+        <v>1.603561</v>
       </c>
       <c r="O7">
-        <v>0.1663852788010758</v>
+        <v>0.06683580532352051</v>
       </c>
       <c r="P7">
-        <v>0.1942914356994219</v>
+        <v>0.07773931709225972</v>
       </c>
       <c r="Q7">
-        <v>94.68747490300534</v>
+        <v>31.28780695495417</v>
       </c>
       <c r="R7">
-        <v>568.124849418032</v>
+        <v>187.726841729725</v>
       </c>
       <c r="S7">
-        <v>0.09638060094547742</v>
+        <v>0.06026037256808041</v>
       </c>
       <c r="T7">
-        <v>0.09428854718159975</v>
+        <v>0.06933354769150266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H8">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I8">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J8">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4032725</v>
+        <v>0.5374675</v>
       </c>
       <c r="N8">
-        <v>0.8065450000000001</v>
+        <v>1.074935</v>
       </c>
       <c r="O8">
-        <v>0.04184860801861763</v>
+        <v>0.06720431564072572</v>
       </c>
       <c r="P8">
-        <v>0.03257830737810435</v>
+        <v>0.05211196382212351</v>
       </c>
       <c r="Q8">
-        <v>0.4476258882158333</v>
+        <v>0.5965801463641667</v>
       </c>
       <c r="R8">
-        <v>2.685755329295</v>
+        <v>3.579480878185</v>
       </c>
       <c r="S8">
-        <v>0.0004556299779795457</v>
+        <v>0.001149014436786283</v>
       </c>
       <c r="T8">
-        <v>0.0004457399959601678</v>
+        <v>0.001322017170755846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H9">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I9">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J9">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>8.593613999999999</v>
       </c>
       <c r="O9">
-        <v>0.2972603584832461</v>
+        <v>0.3581785241281625</v>
       </c>
       <c r="P9">
-        <v>0.3471168978553966</v>
+        <v>0.4166113317263779</v>
       </c>
       <c r="Q9">
-        <v>3.179590392545999</v>
+        <v>3.179590392546</v>
       </c>
       <c r="R9">
-        <v>28.61631353291399</v>
+        <v>28.616313532914</v>
       </c>
       <c r="S9">
-        <v>0.003236445296571354</v>
+        <v>0.006123896824873888</v>
       </c>
       <c r="T9">
-        <v>0.00474929169437941</v>
+        <v>0.01056892302032014</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H10">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I10">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J10">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7332406666666667</v>
+        <v>0.794677</v>
       </c>
       <c r="N10">
-        <v>2.199722</v>
+        <v>2.384031</v>
       </c>
       <c r="O10">
-        <v>0.07609023983198258</v>
+        <v>0.0993654945469726</v>
       </c>
       <c r="P10">
-        <v>0.08885210305981496</v>
+        <v>0.1155758601430048</v>
       </c>
       <c r="Q10">
-        <v>0.8138851637357776</v>
+        <v>0.8820784902756666</v>
       </c>
       <c r="R10">
-        <v>7.324966473621998</v>
+        <v>7.938706412481</v>
       </c>
       <c r="S10">
-        <v>0.0008284384102735512</v>
+        <v>0.00169888476155677</v>
       </c>
       <c r="T10">
-        <v>0.001215684277248625</v>
+        <v>0.002932019068701112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H11">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I11">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J11">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.748994</v>
+        <v>2.8276635</v>
       </c>
       <c r="N11">
-        <v>7.497988</v>
+        <v>5.655327</v>
       </c>
       <c r="O11">
-        <v>0.3890425961853322</v>
+        <v>0.3535677792234121</v>
       </c>
       <c r="P11">
-        <v>0.3028619082398848</v>
+        <v>0.2741655970140318</v>
       </c>
       <c r="Q11">
-        <v>4.161322106431332</v>
+        <v>3.1386602998295</v>
       </c>
       <c r="R11">
-        <v>24.967932638588</v>
+        <v>18.831961798977</v>
       </c>
       <c r="S11">
-        <v>0.0042357315553762</v>
+        <v>0.006045065392556072</v>
       </c>
       <c r="T11">
-        <v>0.004143790043741375</v>
+        <v>0.006955247898932631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H12">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I12">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J12">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.283051</v>
+        <v>0.4386483333333333</v>
       </c>
       <c r="N12">
-        <v>0.8491529999999999</v>
+        <v>1.315945</v>
       </c>
       <c r="O12">
-        <v>0.02937291867974567</v>
+        <v>0.05484808113720663</v>
       </c>
       <c r="P12">
-        <v>0.03429934776737745</v>
+        <v>0.06379593020220228</v>
       </c>
       <c r="Q12">
-        <v>0.3141819868336666</v>
+        <v>0.4868924854105555</v>
       </c>
       <c r="R12">
-        <v>2.827637881502999</v>
+        <v>4.382032368695</v>
       </c>
       <c r="S12">
-        <v>0.0003197999389918439</v>
+        <v>0.0009377558041597714</v>
       </c>
       <c r="T12">
-        <v>0.0004692874604511395</v>
+        <v>0.001618425193867817</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.109983666666666</v>
+        <v>1.109983666666667</v>
       </c>
       <c r="H13">
-        <v>3.329950999999999</v>
+        <v>3.329951</v>
       </c>
       <c r="I13">
-        <v>0.01088757785627768</v>
+        <v>0.01709733111380696</v>
       </c>
       <c r="J13">
-        <v>0.01368211033148231</v>
+        <v>0.0253687843211658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.603365333333333</v>
+        <v>0.5345203333333334</v>
       </c>
       <c r="N13">
-        <v>4.810096</v>
+        <v>1.603561</v>
       </c>
       <c r="O13">
-        <v>0.1663852788010758</v>
+        <v>0.06683580532352051</v>
       </c>
       <c r="P13">
-        <v>0.1942914356994219</v>
+        <v>0.07773931709225972</v>
       </c>
       <c r="Q13">
-        <v>1.779709331699555</v>
+        <v>0.5933088395012223</v>
       </c>
       <c r="R13">
-        <v>16.017383985296</v>
+        <v>5.339779555511001</v>
       </c>
       <c r="S13">
-        <v>0.001811532677085181</v>
+        <v>0.001142713893874172</v>
       </c>
       <c r="T13">
-        <v>0.00265831685970159</v>
+        <v>0.001972151968588254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H14">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I14">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J14">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4032725</v>
+        <v>0.5374675</v>
       </c>
       <c r="N14">
-        <v>0.8065450000000001</v>
+        <v>1.074935</v>
       </c>
       <c r="O14">
-        <v>0.04184860801861763</v>
+        <v>0.06720431564072572</v>
       </c>
       <c r="P14">
-        <v>0.03257830737810435</v>
+        <v>0.05211196382212351</v>
       </c>
       <c r="Q14">
-        <v>0.0528420054925</v>
+        <v>0.06074368107083333</v>
       </c>
       <c r="R14">
-        <v>0.317052032955</v>
+        <v>0.364462086425</v>
       </c>
       <c r="S14">
-        <v>5.378688416549717E-05</v>
+        <v>0.0001169924391874155</v>
       </c>
       <c r="T14">
-        <v>5.26193768833073E-05</v>
+        <v>0.0001346075458259366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H15">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I15">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J15">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>8.593613999999999</v>
       </c>
       <c r="O15">
-        <v>0.2972603584832461</v>
+        <v>0.3581785241281625</v>
       </c>
       <c r="P15">
-        <v>0.3471168978553966</v>
+        <v>0.4166113317263779</v>
       </c>
       <c r="Q15">
-        <v>0.3753490077539999</v>
+        <v>0.3237453105299999</v>
       </c>
       <c r="R15">
-        <v>3.378141069785999</v>
+        <v>2.91370779477</v>
       </c>
       <c r="S15">
-        <v>0.0003820606998832424</v>
+        <v>0.0006235340513892295</v>
       </c>
       <c r="T15">
-        <v>0.000560651437744535</v>
+        <v>0.00107612580324895</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H16">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I16">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J16">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7332406666666667</v>
+        <v>0.794677</v>
       </c>
       <c r="N16">
-        <v>2.199722</v>
+        <v>2.384031</v>
       </c>
       <c r="O16">
-        <v>0.07609023983198258</v>
+        <v>0.0993654945469726</v>
       </c>
       <c r="P16">
-        <v>0.08885210305981496</v>
+        <v>0.1155758601430048</v>
       </c>
       <c r="Q16">
-        <v>0.09607872427533332</v>
+        <v>0.08981307007833333</v>
       </c>
       <c r="R16">
-        <v>0.8647085184779999</v>
+        <v>0.808317630705</v>
       </c>
       <c r="S16">
-        <v>9.779672753146299E-05</v>
+        <v>0.0001729801347916623</v>
       </c>
       <c r="T16">
-        <v>0.0001435109026235393</v>
+        <v>0.0002985376437486484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H17">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I17">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J17">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.748994</v>
+        <v>2.8276635</v>
       </c>
       <c r="N17">
-        <v>7.497988</v>
+        <v>5.655327</v>
       </c>
       <c r="O17">
-        <v>0.3890425961853322</v>
+        <v>0.3535677792234121</v>
       </c>
       <c r="P17">
-        <v>0.3028619082398848</v>
+        <v>0.2741655970140318</v>
       </c>
       <c r="Q17">
-        <v>0.491241930802</v>
+        <v>0.3195778159975</v>
       </c>
       <c r="R17">
-        <v>2.947451584812</v>
+        <v>1.917466895985</v>
       </c>
       <c r="S17">
-        <v>0.0005000259279151042</v>
+        <v>0.0006155074494108469</v>
       </c>
       <c r="T17">
-        <v>0.0004891722798337545</v>
+        <v>0.0007081820652533934</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H18">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I18">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J18">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.283051</v>
+        <v>0.4386483333333333</v>
       </c>
       <c r="N18">
-        <v>0.8491529999999999</v>
+        <v>1.315945</v>
       </c>
       <c r="O18">
-        <v>0.02937291867974567</v>
+        <v>0.05484808113720663</v>
       </c>
       <c r="P18">
-        <v>0.03429934776737745</v>
+        <v>0.06379593020220228</v>
       </c>
       <c r="Q18">
-        <v>0.037089021683</v>
+        <v>0.04957530355277778</v>
       </c>
       <c r="R18">
-        <v>0.333801195147</v>
+        <v>0.446177731975</v>
       </c>
       <c r="S18">
-        <v>3.775221804097263E-05</v>
+        <v>9.548212396500466E-05</v>
       </c>
       <c r="T18">
-        <v>5.539914293510101E-05</v>
+        <v>0.0001647877563684428</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.131033</v>
+        <v>0.1130183333333333</v>
       </c>
       <c r="H19">
-        <v>0.393099</v>
+        <v>0.339055</v>
       </c>
       <c r="I19">
-        <v>0.001285272956786721</v>
+        <v>0.001740847117807985</v>
       </c>
       <c r="J19">
-        <v>0.001615166075775699</v>
+        <v>0.002583044966130993</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.603365333333333</v>
+        <v>0.5345203333333334</v>
       </c>
       <c r="N19">
-        <v>4.810096</v>
+        <v>1.603561</v>
       </c>
       <c r="O19">
-        <v>0.1663852788010758</v>
+        <v>0.06683580532352051</v>
       </c>
       <c r="P19">
-        <v>0.1942914356994219</v>
+        <v>0.07773931709225972</v>
       </c>
       <c r="Q19">
-        <v>0.2100937697226666</v>
+        <v>0.06041059720611112</v>
       </c>
       <c r="R19">
-        <v>1.890843927504</v>
+        <v>0.543695374855</v>
       </c>
       <c r="S19">
-        <v>0.0002138504992504417</v>
+        <v>0.0001163509190638263</v>
       </c>
       <c r="T19">
-        <v>0.0003138129357554618</v>
+        <v>0.0002008041516856225</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H20">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I20">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J20">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4032725</v>
+        <v>0.5374675</v>
       </c>
       <c r="N20">
-        <v>0.8065450000000001</v>
+        <v>1.074935</v>
       </c>
       <c r="O20">
-        <v>0.04184860801861763</v>
+        <v>0.06720431564072572</v>
       </c>
       <c r="P20">
-        <v>0.03257830737810435</v>
+        <v>0.05211196382212351</v>
       </c>
       <c r="Q20">
-        <v>1.37647651462125</v>
+        <v>2.6702798939525</v>
       </c>
       <c r="R20">
-        <v>5.505906058485</v>
+        <v>10.68111957581</v>
       </c>
       <c r="S20">
-        <v>0.001401089571798493</v>
+        <v>0.005142963886932088</v>
       </c>
       <c r="T20">
-        <v>0.0009137848550449999</v>
+        <v>0.003944880266905399</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H21">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I21">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J21">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>8.593613999999999</v>
       </c>
       <c r="O21">
-        <v>0.2972603584832461</v>
+        <v>0.3581785241281625</v>
       </c>
       <c r="P21">
-        <v>0.3471168978553966</v>
+        <v>0.4166113317263779</v>
       </c>
       <c r="Q21">
-        <v>9.777431593376997</v>
+        <v>14.231778157494</v>
       </c>
       <c r="R21">
-        <v>58.66458956026199</v>
+        <v>85.39066894496399</v>
       </c>
       <c r="S21">
-        <v>0.009952263841002078</v>
+        <v>0.02741043037345452</v>
       </c>
       <c r="T21">
-        <v>0.009736238304499663</v>
+        <v>0.03153751463111906</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H22">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I22">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J22">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7332406666666667</v>
+        <v>0.794677</v>
       </c>
       <c r="N22">
-        <v>2.199722</v>
+        <v>2.384031</v>
       </c>
       <c r="O22">
-        <v>0.07609023983198258</v>
+        <v>0.0993654945469726</v>
       </c>
       <c r="P22">
-        <v>0.08885210305981496</v>
+        <v>0.1155758601430048</v>
       </c>
       <c r="Q22">
-        <v>2.502745803971</v>
+        <v>3.948164336051</v>
       </c>
       <c r="R22">
-        <v>15.016474823826</v>
+        <v>23.688986016306</v>
       </c>
       <c r="S22">
-        <v>0.002547497911921198</v>
+        <v>0.00760417162484342</v>
       </c>
       <c r="T22">
-        <v>0.002492201487715251</v>
+        <v>0.008749102827232107</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H23">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I23">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J23">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.748994</v>
+        <v>2.8276635</v>
       </c>
       <c r="N23">
-        <v>7.497988</v>
+        <v>5.655327</v>
       </c>
       <c r="O23">
-        <v>0.3890425961853322</v>
+        <v>0.3535677792234121</v>
       </c>
       <c r="P23">
-        <v>0.3028619082398848</v>
+        <v>0.2741655970140318</v>
       </c>
       <c r="Q23">
-        <v>12.796315628901</v>
+        <v>14.0485759435005</v>
       </c>
       <c r="R23">
-        <v>51.185262515604</v>
+        <v>56.194303774002</v>
       </c>
       <c r="S23">
-        <v>0.01302512915741867</v>
+        <v>0.02705758257921826</v>
       </c>
       <c r="T23">
-        <v>0.008494935654810519</v>
+        <v>0.02075435992427199</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H24">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I24">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J24">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.283051</v>
+        <v>0.4386483333333333</v>
       </c>
       <c r="N24">
-        <v>0.8491529999999999</v>
+        <v>1.315945</v>
       </c>
       <c r="O24">
-        <v>0.02937291867974567</v>
+        <v>0.05484808113720663</v>
       </c>
       <c r="P24">
-        <v>0.03429934776737745</v>
+        <v>0.06379593020220228</v>
       </c>
       <c r="Q24">
-        <v>0.9661284960914999</v>
+        <v>2.179320284511667</v>
       </c>
       <c r="R24">
-        <v>5.796770976548999</v>
+        <v>13.07592170707</v>
       </c>
       <c r="S24">
-        <v>0.0009834040366926463</v>
+        <v>0.004197374794562056</v>
       </c>
       <c r="T24">
-        <v>0.0009620581009317853</v>
+        <v>0.004829357554487318</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.4132665</v>
+        <v>4.968263</v>
       </c>
       <c r="H25">
-        <v>6.826533</v>
+        <v>9.936526000000001</v>
       </c>
       <c r="I25">
-        <v>0.03347995639843446</v>
+        <v>0.07652728605148475</v>
       </c>
       <c r="J25">
-        <v>0.02804887449920582</v>
+        <v>0.07570008837837441</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.603365333333333</v>
+        <v>0.5345203333333334</v>
       </c>
       <c r="N25">
-        <v>4.810096</v>
+        <v>1.603561</v>
       </c>
       <c r="O25">
-        <v>0.1663852788010758</v>
+        <v>0.06683580532352051</v>
       </c>
       <c r="P25">
-        <v>0.1942914356994219</v>
+        <v>0.07773931709225972</v>
       </c>
       <c r="Q25">
-        <v>5.472713179527999</v>
+        <v>2.655637594847667</v>
       </c>
       <c r="R25">
-        <v>32.83627907716799</v>
+        <v>15.933825569086</v>
       </c>
       <c r="S25">
-        <v>0.005570571879601381</v>
+        <v>0.005114762792474401</v>
       </c>
       <c r="T25">
-        <v>0.005449656096203601</v>
+        <v>0.005884873174358533</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H26">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I26">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J26">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4032725</v>
+        <v>0.5374675</v>
       </c>
       <c r="N26">
-        <v>0.8065450000000001</v>
+        <v>1.074935</v>
       </c>
       <c r="O26">
-        <v>0.04184860801861763</v>
+        <v>0.06720431564072572</v>
       </c>
       <c r="P26">
-        <v>0.03257830737810435</v>
+        <v>0.05211196382212351</v>
       </c>
       <c r="Q26">
-        <v>15.2965537971225</v>
+        <v>0.06314472754916667</v>
       </c>
       <c r="R26">
-        <v>91.77932278273501</v>
+        <v>0.378868365295</v>
       </c>
       <c r="S26">
-        <v>0.01557007459404431</v>
+        <v>0.0001216168590307734</v>
       </c>
       <c r="T26">
-        <v>0.01523210789909961</v>
+        <v>0.0001399282469781367</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H27">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I27">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J27">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>8.593613999999999</v>
       </c>
       <c r="O27">
-        <v>0.2972603584832461</v>
+        <v>0.3581785241281625</v>
       </c>
       <c r="P27">
-        <v>0.3471168978553966</v>
+        <v>0.4166113317263779</v>
       </c>
       <c r="Q27">
-        <v>108.654965614818</v>
+        <v>0.3365421566219999</v>
       </c>
       <c r="R27">
-        <v>977.8946905333619</v>
+        <v>3.028879409598</v>
       </c>
       <c r="S27">
-        <v>0.1105978472062302</v>
+        <v>0.0006481808000191522</v>
       </c>
       <c r="T27">
-        <v>0.1622957872049458</v>
+        <v>0.00111866237700584</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H28">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I28">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J28">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.7332406666666667</v>
+        <v>0.794677</v>
       </c>
       <c r="N28">
-        <v>2.199722</v>
+        <v>2.384031</v>
       </c>
       <c r="O28">
-        <v>0.07609023983198258</v>
+        <v>0.0993654945469726</v>
       </c>
       <c r="P28">
-        <v>0.08885210305981496</v>
+        <v>0.1155758601430048</v>
       </c>
       <c r="Q28">
-        <v>27.812596455014</v>
+        <v>0.09336315712966667</v>
       </c>
       <c r="R28">
-        <v>250.313368095126</v>
+        <v>0.8402684141669999</v>
       </c>
       <c r="S28">
-        <v>0.0283099191623202</v>
+        <v>0.0001798176088489033</v>
       </c>
       <c r="T28">
-        <v>0.04154312884218883</v>
+        <v>0.000310338093532664</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H29">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I29">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J29">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.748994</v>
+        <v>2.8276635</v>
       </c>
       <c r="N29">
-        <v>7.497988</v>
+        <v>5.655327</v>
       </c>
       <c r="O29">
-        <v>0.3890425961853322</v>
+        <v>0.3535677792234121</v>
       </c>
       <c r="P29">
-        <v>0.3028619082398848</v>
+        <v>0.2741655970140318</v>
       </c>
       <c r="Q29">
-        <v>142.203320102634</v>
+        <v>0.3322099314065</v>
       </c>
       <c r="R29">
-        <v>853.2199206158041</v>
+        <v>1.993259588439</v>
       </c>
       <c r="S29">
-        <v>0.1447460866600736</v>
+        <v>0.0006398369264485079</v>
       </c>
       <c r="T29">
-        <v>0.1416042034135158</v>
+        <v>0.0007361747391220166</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H30">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I30">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J30">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,28 +2297,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.283051</v>
+        <v>0.4386483333333333</v>
       </c>
       <c r="N30">
-        <v>0.8491529999999999</v>
+        <v>1.315945</v>
       </c>
       <c r="O30">
-        <v>0.02937291867974567</v>
+        <v>0.05484808113720663</v>
       </c>
       <c r="P30">
-        <v>0.03429934776737745</v>
+        <v>0.06379593020220228</v>
       </c>
       <c r="Q30">
-        <v>10.736424747111</v>
+        <v>0.05153489187388888</v>
       </c>
       <c r="R30">
-        <v>96.62782272399899</v>
+        <v>0.463814026865</v>
       </c>
       <c r="S30">
-        <v>0.01092840494682587</v>
+        <v>9.925629460215495E-05</v>
       </c>
       <c r="T30">
-        <v>0.01603678668746831</v>
+        <v>0.0001713014061032937</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>37.931061</v>
+        <v>0.1174856666666667</v>
       </c>
       <c r="H31">
-        <v>113.793183</v>
+        <v>0.352457</v>
       </c>
       <c r="I31">
-        <v>0.3720571682364556</v>
+        <v>0.001809658470163392</v>
       </c>
       <c r="J31">
-        <v>0.4675536921644063</v>
+        <v>0.002685146302598787</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.603365333333333</v>
+        <v>0.5345203333333334</v>
       </c>
       <c r="N31">
-        <v>4.810096</v>
+        <v>1.603561</v>
       </c>
       <c r="O31">
-        <v>0.1663852788010758</v>
+        <v>0.06683580532352051</v>
       </c>
       <c r="P31">
-        <v>0.1942914356994219</v>
+        <v>0.07773931709225972</v>
       </c>
       <c r="Q31">
-        <v>60.817348263952</v>
+        <v>0.06279847770855557</v>
       </c>
       <c r="R31">
-        <v>547.356134375568</v>
+        <v>0.565186299377</v>
       </c>
       <c r="S31">
-        <v>0.06190483566696145</v>
+        <v>0.0001209499812139004</v>
       </c>
       <c r="T31">
-        <v>0.09084167811718806</v>
+        <v>0.0002087414398568358</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H32">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I32">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J32">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4032725</v>
+        <v>0.5374675</v>
       </c>
       <c r="N32">
-        <v>0.8065450000000001</v>
+        <v>1.074935</v>
       </c>
       <c r="O32">
-        <v>0.04184860801861763</v>
+        <v>0.06720431564072572</v>
       </c>
       <c r="P32">
-        <v>0.03257830737810435</v>
+        <v>0.05211196382212351</v>
       </c>
       <c r="Q32">
-        <v>0.1245094434058333</v>
+        <v>0.0421078912875</v>
       </c>
       <c r="R32">
-        <v>0.747056660435</v>
+        <v>0.252647347725</v>
       </c>
       <c r="S32">
-        <v>0.0001267358221468449</v>
+        <v>8.109987448766185E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001239848727738438</v>
+        <v>9.331077416112136E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H33">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I33">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J33">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>8.593613999999999</v>
       </c>
       <c r="O33">
-        <v>0.2972603584832461</v>
+        <v>0.3581785241281625</v>
       </c>
       <c r="P33">
-        <v>0.3471168978553966</v>
+        <v>0.4166113317263779</v>
       </c>
       <c r="Q33">
-        <v>0.8844194235779999</v>
+        <v>0.22442222961</v>
       </c>
       <c r="R33">
-        <v>7.959774812201998</v>
+        <v>2.01980006649</v>
       </c>
       <c r="S33">
-        <v>0.0009002339075956798</v>
+        <v>0.0004322376185818452</v>
       </c>
       <c r="T33">
-        <v>0.00132103991526514</v>
+        <v>0.0007459769894755038</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H34">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I34">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J34">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.7332406666666667</v>
+        <v>0.794677</v>
       </c>
       <c r="N34">
-        <v>2.199722</v>
+        <v>2.384031</v>
       </c>
       <c r="O34">
-        <v>0.07609023983198258</v>
+        <v>0.0993654945469726</v>
       </c>
       <c r="P34">
-        <v>0.08885210305981496</v>
+        <v>0.1155758601430048</v>
       </c>
       <c r="Q34">
-        <v>0.2263863449384444</v>
+        <v>0.062258969565</v>
       </c>
       <c r="R34">
-        <v>2.037477104446</v>
+        <v>0.5603307260849999</v>
       </c>
       <c r="S34">
-        <v>0.000230434405325185</v>
+        <v>0.0001199108875573531</v>
       </c>
       <c r="T34">
-        <v>0.0003381488352265839</v>
+        <v>0.0002069481208018274</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H35">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I35">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J35">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.748994</v>
+        <v>2.8276635</v>
       </c>
       <c r="N35">
-        <v>7.497988</v>
+        <v>5.655327</v>
       </c>
       <c r="O35">
-        <v>0.3890425961853322</v>
+        <v>0.3535677792234121</v>
       </c>
       <c r="P35">
-        <v>0.3028619082398848</v>
+        <v>0.2741655970140318</v>
       </c>
       <c r="Q35">
-        <v>1.157493149847333</v>
+        <v>0.2215332969075</v>
       </c>
       <c r="R35">
-        <v>6.944958899084</v>
+        <v>1.329199781445</v>
       </c>
       <c r="S35">
-        <v>0.001178190520835387</v>
+        <v>0.0004266735289916928</v>
       </c>
       <c r="T35">
-        <v>0.001152616516424759</v>
+        <v>0.0004909161395845256</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H36">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I36">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J36">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2669,28 +2669,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>0.283051</v>
+        <v>0.4386483333333333</v>
       </c>
       <c r="N36">
-        <v>0.8491529999999999</v>
+        <v>1.315945</v>
       </c>
       <c r="O36">
-        <v>0.02937291867974567</v>
+        <v>0.05484808113720663</v>
       </c>
       <c r="P36">
-        <v>0.03429934776737745</v>
+        <v>0.06379593020220228</v>
       </c>
       <c r="Q36">
-        <v>0.08739133579766666</v>
+        <v>0.034365903675</v>
       </c>
       <c r="R36">
-        <v>0.7865220221789999</v>
+        <v>0.3092931330749999</v>
       </c>
       <c r="S36">
-        <v>8.895399808934803E-05</v>
+        <v>6.618879239685264E-05</v>
       </c>
       <c r="T36">
-        <v>0.0001305347211507451</v>
+        <v>0.0001142318807215849</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3087476666666666</v>
+        <v>0.078345</v>
       </c>
       <c r="H37">
-        <v>0.9262429999999999</v>
+        <v>0.235035</v>
       </c>
       <c r="I37">
-        <v>0.003028435786692419</v>
+        <v>0.001206765870829216</v>
       </c>
       <c r="J37">
-        <v>0.003805749369814501</v>
+        <v>0.001790582571012367</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.603365333333333</v>
+        <v>0.5345203333333334</v>
       </c>
       <c r="N37">
-        <v>4.810096</v>
+        <v>1.603561</v>
       </c>
       <c r="O37">
-        <v>0.1663852788010758</v>
+        <v>0.06683580532352051</v>
       </c>
       <c r="P37">
-        <v>0.1942914356994219</v>
+        <v>0.07773931709225972</v>
       </c>
       <c r="Q37">
-        <v>0.4950353054808889</v>
+        <v>0.041876995515</v>
       </c>
       <c r="R37">
-        <v>4.455317749328</v>
+        <v>0.376892959635</v>
       </c>
       <c r="S37">
-        <v>0.0005038871326999735</v>
+        <v>8.065516881381016E-05</v>
       </c>
       <c r="T37">
-        <v>0.0007394245089734295</v>
+        <v>0.000139198666267804</v>
       </c>
     </row>
   </sheetData>
